--- a/excel/output2.xlsx
+++ b/excel/output2.xlsx
@@ -38,10 +38,10 @@
     <t>₹1,999</t>
   </si>
   <si>
-    <t>₹4,199</t>
+    <t>₹8,499</t>
   </si>
   <si>
-    <t>₹8,499</t>
+    <t>₹4,199</t>
   </si>
   <si>
     <t>₹5,499</t>

--- a/excel/output2.xlsx
+++ b/excel/output2.xlsx
@@ -12,12 +12,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
-  <si>
-    <t>Dolah Bamboo Bookshelf In Polished Finish</t>
-  </si>
-  <si>
-    <t>₹6,999</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+  <si>
+    <t>Belino Engineered Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t>₹3,706</t>
+  </si>
+  <si>
+    <t>Babylon Solid Wood Bookshelf In Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹4,465</t>
+  </si>
+  <si>
+    <t>Armstrong Engineered Wood Bookshelf In Laminate Finish</t>
+  </si>
+  <si>
+    <t>₹8,259</t>
+  </si>
+  <si>
+    <t>Wallace Engineered Wood Bookshelf In Wenge Finish</t>
+  </si>
+  <si>
+    <t>₹3,365</t>
+  </si>
+  <si>
+    <t>Darcia Engineered Wood Bookshelf In Rustic Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹6,843</t>
+  </si>
+  <si>
+    <t>Hayden Engineered Wood Bookshelf In Classic Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹3,932</t>
+  </si>
+  <si>
+    <t>Megan Engineered Wood Bookshelf In Classic Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹3,007</t>
+  </si>
+  <si>
+    <t>Tetris Solid Wood Bookshelf In Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹5,951</t>
+  </si>
+  <si>
+    <t>Austen Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>₹9,983</t>
+  </si>
+  <si>
+    <t>Andreas Room Divider</t>
+  </si>
+  <si>
+    <t>₹10,114</t>
+  </si>
+  <si>
+    <t>Hayden Engineered Wood Bookshelf In Californian Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹3,989</t>
+  </si>
+  <si>
+    <t>Paxton Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>₹7,433</t>
+  </si>
+  <si>
+    <t>₹5,045</t>
+  </si>
+  <si>
+    <t>Megan Engineered Wood Bookshelf In Dark Wenge Finish</t>
+  </si>
+  <si>
+    <t>₹3,071</t>
+  </si>
+  <si>
+    <t>₹3,827</t>
+  </si>
+  <si>
+    <t>Cory Engineered Wood Bookshelf In Espresso Finish</t>
+  </si>
+  <si>
+    <t>₹3,657</t>
+  </si>
+  <si>
+    <t>₹6,031</t>
+  </si>
+  <si>
+    <t>₹5,615</t>
+  </si>
+  <si>
+    <t>Austen Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>₹9,827</t>
+  </si>
+  <si>
+    <t>Slumppy Solid Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t>₹8,580</t>
+  </si>
+  <si>
+    <t>Xanthea Engineered Wood Bookshelf In Polished Finish</t>
+  </si>
+  <si>
+    <t>₹4,235</t>
+  </si>
+  <si>
+    <t>Quillan Engineered Wood Bookshelf In Polished Finish</t>
+  </si>
+  <si>
+    <t>₹4,395</t>
+  </si>
+  <si>
+    <t>Walten Engineered Wood Bookshelf In Walnut Finish</t>
+  </si>
+  <si>
+    <t>₹2,411</t>
+  </si>
+  <si>
+    <t>Maple Engineered Wood Bookshelf In Wenge Finish</t>
+  </si>
+  <si>
+    <t>₹2,155</t>
+  </si>
+  <si>
+    <t>Conak Engineered Wood Bookshelf In Wenge Finish</t>
+  </si>
+  <si>
+    <t>₹740</t>
+  </si>
+  <si>
+    <t>Zephyrine Engineered Wood Bookshelf In Polished Finish</t>
+  </si>
+  <si>
+    <t>₹3,596</t>
+  </si>
+  <si>
+    <t>₹8,399</t>
+  </si>
+  <si>
+    <t>₹4,031</t>
   </si>
   <si>
     <t>Bamboo Stepkhuta Bamboo Bookshelf In Polished Finish</t>
@@ -26,25 +170,10 @@
     <t>₹4,999</t>
   </si>
   <si>
-    <t>₹6,499</t>
-  </si>
-  <si>
-    <t>₹4,499</t>
-  </si>
-  <si>
-    <t>Dolong Bamboo Bookshelf In Polished Finish</t>
-  </si>
-  <si>
-    <t>₹1,999</t>
-  </si>
-  <si>
-    <t>₹8,499</t>
-  </si>
-  <si>
-    <t>₹4,199</t>
-  </si>
-  <si>
-    <t>₹5,499</t>
+    <t>Ragnarok Engineered Wood Bookshelf In Polished Finish</t>
+  </si>
+  <si>
+    <t>₹3,236</t>
   </si>
 </sst>
 </file>
@@ -89,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -113,50 +242,226 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
